--- a/docs/CareConnect-HeartRate-Observation-1.xlsx
+++ b/docs/CareConnect-HeartRate-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7137" uniqueCount="684">
   <si>
     <t>Path</t>
   </si>
@@ -915,9 +915,6 @@
   </si>
   <si>
     <t>loinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This value set indicates the allowed vital sign result types. </t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
@@ -1520,7 +1517,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -6741,7 +6738,7 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="Y38" t="s" s="2">
         <v>279</v>
@@ -6797,7 +6794,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6912,7 +6909,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7029,7 +7026,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7071,7 +7068,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>45</v>
@@ -7148,7 +7145,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7265,7 +7262,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7305,7 +7302,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>45</v>
@@ -7382,7 +7379,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7499,7 +7496,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7621,7 +7618,7 @@
         <v>288</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
@@ -7739,7 +7736,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7854,7 +7851,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7880,10 +7877,10 @@
         <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7969,10 +7966,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>45</v>
@@ -7994,13 +7991,13 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8086,7 +8083,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8201,7 +8198,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8318,7 +8315,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8344,13 +8341,13 @@
         <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8400,7 +8397,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>56</v>
@@ -8435,7 +8432,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8458,13 +8455,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8515,7 +8512,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8550,7 +8547,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8592,7 +8589,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>45</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8786,7 +8783,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8826,7 +8823,7 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>45</v>
@@ -8903,7 +8900,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8943,7 +8940,7 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>45</v>
@@ -9020,7 +9017,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9139,7 +9136,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9258,7 +9255,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9281,19 +9278,19 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9342,7 +9339,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9357,19 +9354,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9377,11 +9374,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9400,19 +9397,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9461,7 +9458,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9476,19 +9473,19 @@
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
@@ -9496,11 +9493,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9519,19 +9516,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9580,7 +9577,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9595,19 +9592,19 @@
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9615,7 +9612,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9638,16 +9635,16 @@
         <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9697,7 +9694,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9718,13 +9715,13 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -9732,7 +9729,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9755,17 +9752,17 @@
         <v>57</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9814,7 +9811,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9829,19 +9826,19 @@
         <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9849,10 +9846,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>45</v>
@@ -9874,19 +9871,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9914,63 +9911,63 @@
         <v>136</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE65" t="s" s="2">
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AF65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH65" t="s" s="2">
+      <c r="AI65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AI65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AK65" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10085,7 +10082,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10202,7 +10199,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10225,19 +10222,19 @@
         <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -10286,31 +10283,31 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10321,7 +10318,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10347,22 +10344,22 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>45</v>
@@ -10386,52 +10383,52 @@
         <v>136</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10442,7 +10439,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10468,14 +10465,14 @@
         <v>120</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10524,31 +10521,31 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10559,7 +10556,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10585,87 +10582,87 @@
         <v>69</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH71" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH71" t="s" s="2">
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10676,7 +10673,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10702,89 +10699,89 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10795,7 +10792,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10821,16 +10818,16 @@
         <v>142</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10858,43 +10855,43 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH73" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="AI73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>45</v>
@@ -10903,7 +10900,7 @@
         <v>99</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10914,7 +10911,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11029,7 +11026,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11146,7 +11143,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11265,7 +11262,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11380,7 +11377,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11497,7 +11494,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11616,7 +11613,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11733,7 +11730,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11850,7 +11847,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11967,7 +11964,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12086,7 +12083,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12205,11 +12202,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12231,14 +12228,14 @@
         <v>142</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -12266,63 +12263,63 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12348,14 +12345,14 @@
         <v>120</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12404,7 +12401,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12419,16 +12416,16 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12439,7 +12436,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12465,13 +12462,13 @@
         <v>142</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12497,66 +12494,66 @@
         <v>45</v>
       </c>
       <c r="W87" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="X87" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="X87" t="s" s="2">
+      <c r="Y87" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK87" t="s" s="2">
+      <c r="AL87" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12671,7 +12668,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12788,7 +12785,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12860,7 +12857,7 @@
         <v>45</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AB90" s="2"/>
       <c r="AC90" t="s" s="2">
@@ -12905,10 +12902,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>45</v>
@@ -12967,13 +12964,13 @@
         <v>45</v>
       </c>
       <c r="W91" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="X91" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="X91" t="s" s="2">
+      <c r="Y91" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>45</v>
@@ -13026,7 +13023,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13141,7 +13138,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13167,10 +13164,10 @@
         <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13256,10 +13253,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>45</v>
@@ -13281,13 +13278,13 @@
         <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13373,7 +13370,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13488,7 +13485,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13605,7 +13602,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13631,13 +13628,13 @@
         <v>69</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13687,7 +13684,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>56</v>
@@ -13722,7 +13719,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13745,13 +13742,13 @@
         <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13802,7 +13799,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13837,7 +13834,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13879,7 +13876,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>45</v>
@@ -13956,7 +13953,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14073,7 +14070,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14190,7 +14187,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14307,7 +14304,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14426,7 +14423,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14545,7 +14542,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14571,16 +14568,16 @@
         <v>142</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14605,55 +14602,55 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="Y105" t="s" s="2">
+      <c r="Z105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL105" t="s" s="2">
+      <c r="AM105" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14664,7 +14661,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14779,7 +14776,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14896,7 +14893,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14968,7 +14965,7 @@
         <v>45</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
@@ -15013,10 +15010,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>45</v>
@@ -15075,13 +15072,13 @@
         <v>45</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="X109" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Y109" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>45</v>
@@ -15134,7 +15131,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15249,7 +15246,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15275,10 +15272,10 @@
         <v>102</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15364,10 +15361,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>45</v>
@@ -15389,13 +15386,13 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -15481,7 +15478,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15596,7 +15593,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15713,7 +15710,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15739,13 +15736,13 @@
         <v>69</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15795,7 +15792,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>56</v>
@@ -15830,7 +15827,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15853,13 +15850,13 @@
         <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K116" t="s" s="2">
+      <c r="L116" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15910,7 +15907,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15945,7 +15942,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15987,7 +15984,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>45</v>
@@ -16064,7 +16061,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16181,7 +16178,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16298,7 +16295,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16415,7 +16412,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16534,7 +16531,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16653,7 +16650,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16676,16 +16673,16 @@
         <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="K123" t="s" s="2">
+      <c r="L123" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16735,7 +16732,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16753,24 +16750,24 @@
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL123" t="s" s="2">
+      <c r="AM123" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AM123" t="s" s="2">
+      <c r="AN123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>532</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16793,16 +16790,16 @@
         <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16852,7 +16849,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16870,24 +16867,24 @@
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL124" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AL124" t="s" s="2">
+      <c r="AM124" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="AM124" t="s" s="2">
+      <c r="AN124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO124" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>541</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16910,19 +16907,19 @@
         <v>45</v>
       </c>
       <c r="J125" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K125" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K125" t="s" s="2">
+      <c r="L125" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>45</v>
@@ -16971,7 +16968,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -16983,19 +16980,19 @@
         <v>45</v>
       </c>
       <c r="AI125" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL125" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AJ125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL125" t="s" s="2">
+      <c r="AM125" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
@@ -17006,7 +17003,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17121,7 +17118,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17238,11 +17235,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17267,7 +17264,7 @@
         <v>108</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>105</v>
@@ -17320,7 +17317,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17355,7 +17352,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17378,13 +17375,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="K129" t="s" s="2">
+      <c r="L129" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17435,7 +17432,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17444,22 +17441,22 @@
         <v>56</v>
       </c>
       <c r="AH129" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AI129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL129" t="s" s="2">
+      <c r="AM129" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17470,7 +17467,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17493,13 +17490,13 @@
         <v>45</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -17550,7 +17547,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17559,22 +17556,22 @@
         <v>56</v>
       </c>
       <c r="AH130" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL130" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AI130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>562</v>
-      </c>
       <c r="AM130" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17585,7 +17582,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17611,16 +17608,16 @@
         <v>142</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
@@ -17648,52 +17645,52 @@
         <v>79</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y131" t="s" s="2">
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Z131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK131" t="s" s="2">
+      <c r="AL131" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AL131" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AM131" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
@@ -17704,7 +17701,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17730,16 +17727,16 @@
         <v>142</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -17764,14 +17761,14 @@
         <v>45</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X132" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y132" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Y132" t="s" s="2">
-        <v>583</v>
-      </c>
       <c r="Z132" t="s" s="2">
         <v>45</v>
       </c>
@@ -17788,7 +17785,7 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -17806,13 +17803,13 @@
         <v>45</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL132" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AL132" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AM132" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>45</v>
@@ -17823,7 +17820,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17846,17 +17843,17 @@
         <v>45</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
@@ -17905,7 +17902,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17929,7 +17926,7 @@
         <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
@@ -17940,7 +17937,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17966,10 +17963,10 @@
         <v>120</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -18020,7 +18017,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18041,10 +18038,10 @@
         <v>45</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>45</v>
@@ -18055,7 +18052,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18078,19 +18075,19 @@
         <v>57</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18139,7 +18136,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18151,19 +18148,19 @@
         <v>45</v>
       </c>
       <c r="AI135" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AJ135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL135" t="s" s="2">
+      <c r="AM135" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
@@ -18174,7 +18171,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18289,7 +18286,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18406,11 +18403,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18435,7 +18432,7 @@
         <v>108</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>105</v>
@@ -18488,7 +18485,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18523,7 +18520,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18549,23 +18546,23 @@
         <v>75</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="M139" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R139" t="s" s="2">
         <v>45</v>
@@ -18586,11 +18583,11 @@
         <v>136</v>
       </c>
       <c r="X139" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Y139" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="Y139" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="Z139" t="s" s="2">
         <v>45</v>
       </c>
@@ -18607,7 +18604,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -18631,7 +18628,7 @@
         <v>99</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -18642,7 +18639,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18665,13 +18662,13 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18722,7 +18719,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>56</v>
@@ -18746,7 +18743,7 @@
         <v>45</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
@@ -18757,7 +18754,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18780,19 +18777,19 @@
         <v>57</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
@@ -18841,7 +18838,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18853,7 +18850,7 @@
         <v>45</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>45</v>
@@ -18862,10 +18859,10 @@
         <v>45</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>45</v>
@@ -18876,7 +18873,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18991,7 +18988,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19108,11 +19105,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19137,7 +19134,7 @@
         <v>108</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M144" t="s" s="2">
         <v>105</v>
@@ -19190,7 +19187,7 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>43</v>
@@ -19225,7 +19222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19251,10 +19248,10 @@
         <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
@@ -19286,7 +19283,7 @@
         <v>79</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="Y145" t="s" s="2">
         <v>279</v>
@@ -19307,7 +19304,7 @@
         <v>45</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>56</v>
@@ -19325,7 +19322,7 @@
         <v>45</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>282</v>
@@ -19342,7 +19339,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19457,7 +19454,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19574,7 +19571,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19691,7 +19688,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>290</v>
@@ -19756,10 +19753,10 @@
         <v>79</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>45</v>
@@ -19812,7 +19809,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19927,7 +19924,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20044,7 +20041,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20086,7 +20083,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>45</v>
@@ -20163,7 +20160,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20280,7 +20277,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20397,7 +20394,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20514,7 +20511,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20633,10 +20630,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>45</v>
@@ -20754,7 +20751,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20869,7 +20866,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20895,10 +20892,10 @@
         <v>102</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -20984,10 +20981,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>45</v>
@@ -21009,13 +21006,13 @@
         <v>45</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -21101,7 +21098,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21216,7 +21213,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21333,7 +21330,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21359,13 +21356,13 @@
         <v>69</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -21415,7 +21412,7 @@
         <v>45</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>56</v>
@@ -21450,7 +21447,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21473,13 +21470,13 @@
         <v>45</v>
       </c>
       <c r="J164" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K164" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K164" t="s" s="2">
+      <c r="L164" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -21530,7 +21527,7 @@
         <v>45</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>43</v>
@@ -21565,7 +21562,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21607,7 +21604,7 @@
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R165" t="s" s="2">
         <v>45</v>
@@ -21684,7 +21681,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21801,7 +21798,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21918,7 +21915,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22035,7 +22032,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22154,7 +22151,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22273,10 +22270,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>45</v>
@@ -22298,19 +22295,19 @@
         <v>57</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L171" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="N171" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>45</v>
@@ -22338,11 +22335,11 @@
         <v>136</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>45</v>
       </c>
@@ -22359,42 +22356,42 @@
         <v>45</v>
       </c>
       <c r="AE171" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK171" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="AF171" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="AL171" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM171" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM171" t="s" s="2">
+      <c r="AN171" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO171" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN171" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO171" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22509,7 +22506,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22626,7 +22623,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22649,19 +22646,19 @@
         <v>57</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K174" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K174" t="s" s="2">
+      <c r="L174" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22710,31 +22707,31 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL174" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AF174" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL174" t="s" s="2">
+      <c r="AM174" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>45</v>
@@ -22745,7 +22742,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22771,22 +22768,22 @@
         <v>75</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="O175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P175" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>45</v>
@@ -22810,52 +22807,52 @@
         <v>136</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y175" t="s" s="2">
+      <c r="Z175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE175" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE175" t="s" s="2">
+      <c r="AF175" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL175" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AF175" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL175" t="s" s="2">
+      <c r="AM175" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>45</v>
@@ -22866,7 +22863,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22892,14 +22889,14 @@
         <v>120</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>45</v>
@@ -22948,31 +22945,31 @@
         <v>45</v>
       </c>
       <c r="AE176" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL176" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AF176" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL176" t="s" s="2">
+      <c r="AM176" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>45</v>
@@ -22983,7 +22980,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23009,87 +23006,87 @@
         <v>69</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE177" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="R177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE177" t="s" s="2">
+      <c r="AF177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH177" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AF177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH177" t="s" s="2">
+      <c r="AI177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM177" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>45</v>
@@ -23100,7 +23097,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23126,16 +23123,16 @@
         <v>75</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>45</v>
@@ -23163,11 +23160,11 @@
         <v>136</v>
       </c>
       <c r="X178" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y178" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y178" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z178" t="s" s="2">
         <v>45</v>
       </c>
@@ -23184,31 +23181,31 @@
         <v>45</v>
       </c>
       <c r="AE178" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF178" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG178" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK178" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL178" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM178" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>45</v>
@@ -23219,7 +23216,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23245,16 +23242,16 @@
         <v>142</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="L179" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M179" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="N179" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>45</v>
@@ -23282,11 +23279,11 @@
         <v>79</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="Y179" t="s" s="2">
-        <v>667</v>
-      </c>
       <c r="Z179" t="s" s="2">
         <v>45</v>
       </c>
@@ -23303,7 +23300,7 @@
         <v>45</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>43</v>
@@ -23312,7 +23309,7 @@
         <v>56</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>45</v>
@@ -23327,7 +23324,7 @@
         <v>99</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>45</v>
@@ -23338,7 +23335,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23453,7 +23450,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23570,7 +23567,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23689,7 +23686,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23804,7 +23801,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23921,7 +23918,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24040,7 +24037,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24157,7 +24154,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24274,7 +24271,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24391,7 +24388,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24510,7 +24507,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24629,11 +24626,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24655,16 +24652,16 @@
         <v>142</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>45</v>
@@ -24692,11 +24689,11 @@
         <v>79</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>682</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>45</v>
       </c>
@@ -24713,7 +24710,7 @@
         <v>45</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>43</v>
@@ -24731,24 +24728,24 @@
         <v>45</v>
       </c>
       <c r="AK191" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL191" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL191" t="s" s="2">
+      <c r="AM191" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AM191" t="s" s="2">
+      <c r="AN191" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO191" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24774,16 +24771,16 @@
         <v>45</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>45</v>
@@ -24832,7 +24829,7 @@
         <v>45</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>43</v>
@@ -24853,10 +24850,10 @@
         <v>45</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM192" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>45</v>
